--- a/BalanceSheet/GWW_bal.xlsx
+++ b/BalanceSheet/GWW_bal.xlsx
@@ -507,19 +507,19 @@
         <v>1675000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>64000000.0</v>
+        <v>1733000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-78000000.0</v>
+        <v>1780000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-163000000.0</v>
+        <v>1695000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>19000000.0</v>
+        <v>1615000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-124000000.0</v>
+        <v>1655000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1520000000.0</v>
@@ -2054,19 +2054,19 @@
         <v>887000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-65000000.0</v>
+        <v>779000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>66000000.0</v>
+        <v>836000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-76000000.0</v>
+        <v>770000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>155000000.0</v>
+        <v>863000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>719000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>723000000.0</v>
@@ -3013,19 +3013,19 @@
         <v>87000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>57000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>9000000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>7000000.0</v>
+        <v>93000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>-15000000.0</v>
+        <v>67000000.0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>120000000.0</v>
@@ -3517,10 +3517,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>1248000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1239000000.0</v>
@@ -3646,10 +3644,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>55000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>55000000.0</v>
@@ -3775,10 +3771,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>8948000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>8779000000.0</v>
@@ -3904,10 +3898,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>8354000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>8184000000.0</v>
@@ -4033,10 +4025,8 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>2080000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1828000000.0</v>
@@ -4420,7 +4410,7 @@
         <v>52110000.0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>52524400.0</v>
+        <v>52524000.0</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>53668000.0</v>
@@ -4670,10 +4660,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>1818000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2031000000.0</v>
@@ -4799,10 +4787,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>2380000000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2616000000.0</v>
